--- a/BackTest/2019-11-01 BackTest FNB.xlsx
+++ b/BackTest/2019-11-01 BackTest FNB.xlsx
@@ -451,17 +451,13 @@
         <v>17.66833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>17.67666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>17.68333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>17.68833333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>17.69499999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>17.70166666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>17.70833333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>17.71333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>17.71666666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,22 +766,14 @@
         <v>17.71999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -869,22 +801,14 @@
         <v>17.72166666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -912,22 +836,14 @@
         <v>17.72666666666666</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -955,22 +871,14 @@
         <v>17.72999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -998,22 +906,14 @@
         <v>17.73333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1041,22 +941,14 @@
         <v>17.73833333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1084,22 +976,14 @@
         <v>17.74333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1127,22 +1011,14 @@
         <v>17.74833333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>18</v>
-      </c>
-      <c r="K18" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1176,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1217,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1258,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1299,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1340,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1381,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1422,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1463,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1504,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1545,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1586,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1627,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1668,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1709,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1750,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1791,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1832,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1873,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1914,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1955,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1996,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2037,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2078,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2119,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2160,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2201,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2242,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2283,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2324,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2365,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2406,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2447,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2488,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2529,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2570,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2611,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2652,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2693,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2734,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2775,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2816,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2857,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2898,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2939,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2980,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3021,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3062,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3103,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3144,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3185,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3226,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3267,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3308,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3349,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3390,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3431,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3472,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3513,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3554,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3595,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3636,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3677,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3718,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3759,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3800,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3841,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3882,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3923,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3964,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4005,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4046,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4087,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4128,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4169,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4210,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4251,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4289,17 +3709,11 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4330,17 +3744,11 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4374,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4415,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4456,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4497,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4538,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4579,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4620,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4661,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4702,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4743,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4784,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4825,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4866,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4907,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4948,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4989,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5030,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5071,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5112,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5153,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5194,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5235,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5276,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5317,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5358,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5399,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5440,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5481,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5522,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5563,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5604,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5645,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5686,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5727,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5768,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5809,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5850,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5891,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5932,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5973,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6014,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6055,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6096,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6137,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6178,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6219,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6260,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6301,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6342,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6383,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6424,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6465,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6506,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6547,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6588,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6629,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6670,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6711,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6752,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6793,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6834,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6875,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6916,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6957,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6998,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7039,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7080,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7121,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7162,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7203,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7244,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7285,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7326,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7367,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7408,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7449,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7490,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7531,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7572,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7613,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7654,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7695,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7736,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7777,14 +6687,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7818,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7859,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7900,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7941,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7982,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8023,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8064,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8105,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8146,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8187,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8228,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8269,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8310,14 +7142,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8351,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8392,14 +7212,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8433,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8474,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8515,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8556,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8597,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8638,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8679,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8720,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8761,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8802,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8843,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8884,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8925,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8966,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -9007,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -9048,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9089,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9130,14 +7842,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9171,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9212,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9253,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9294,14 +7982,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9335,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9376,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9417,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9458,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9499,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9540,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9581,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9622,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9663,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9704,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9745,14 +8367,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9786,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9827,14 +8437,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9868,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9909,14 +8507,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9950,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9991,14 +8577,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -10032,14 +8612,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -10073,14 +8647,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -10114,14 +8682,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -10155,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -10196,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10237,14 +8787,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10278,14 +8822,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10319,14 +8857,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10360,14 +8892,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10401,14 +8927,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10442,14 +8962,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10483,14 +8997,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10524,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10565,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10606,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10647,14 +9137,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10688,14 +9172,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10729,14 +9207,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10770,14 +9242,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10811,14 +9277,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10852,14 +9312,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10893,14 +9347,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10934,14 +9382,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10975,14 +9417,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -11016,14 +9452,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -11057,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -11098,14 +9522,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -11139,14 +9557,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -11180,14 +9592,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11215,20 +9621,18 @@
         <v>18.075</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>17.8</v>
+      </c>
       <c r="K264" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>17.8</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11256,18 +9660,20 @@
         <v>18.07</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>17.8</v>
+      </c>
       <c r="K265" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M265" t="n">
@@ -11297,18 +9703,20 @@
         <v>18.065</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>17.8</v>
+      </c>
       <c r="K266" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M266" t="n">
@@ -11338,18 +9746,20 @@
         <v>18.06</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>17.8</v>
+      </c>
       <c r="K267" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M267" t="n">
@@ -11379,14 +9789,16 @@
         <v>18.05333333333333</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>17.8</v>
+      </c>
       <c r="K268" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -11420,14 +9832,16 @@
         <v>18.04666666666667</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K269" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -11461,14 +9875,16 @@
         <v>18.04</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>17.8</v>
+      </c>
       <c r="K270" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -11509,7 +9925,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -11543,14 +9959,16 @@
         <v>18.02833333333333</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K272" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -11584,14 +10002,16 @@
         <v>18.02333333333333</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K273" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -11632,7 +10052,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -11673,7 +10093,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -11714,7 +10134,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -11755,7 +10175,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -11796,7 +10216,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -11837,7 +10257,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -11878,7 +10298,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -11919,7 +10339,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -11960,7 +10380,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -12001,7 +10421,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -12042,7 +10462,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -12083,7 +10503,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -12124,7 +10544,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -12165,7 +10585,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -12206,7 +10626,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -12247,7 +10667,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -12288,7 +10708,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -12329,7 +10749,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -12370,7 +10790,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -12411,7 +10831,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -12452,7 +10872,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -12493,7 +10913,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -12534,7 +10954,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -12575,7 +10995,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -12616,7 +11036,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -12657,7 +11077,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -12698,7 +11118,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -12739,7 +11159,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -12780,7 +11200,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -12821,7 +11241,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -12862,7 +11282,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -12903,7 +11323,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -12944,7 +11364,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -12985,7 +11405,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -13026,7 +11446,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -13067,7 +11487,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -13108,7 +11528,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -13149,7 +11569,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -13190,7 +11610,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -13231,7 +11651,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -13272,7 +11692,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -13313,7 +11733,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -13354,7 +11774,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -13395,7 +11815,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -13436,7 +11856,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -13477,7 +11897,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -13518,7 +11938,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -13559,7 +11979,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -13600,7 +12020,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -13641,7 +12061,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -13682,7 +12102,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -13723,7 +12143,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -13764,7 +12184,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -13805,7 +12225,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -13846,7 +12266,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -13887,7 +12307,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -13928,7 +12348,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -13969,7 +12389,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -14010,7 +12430,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -14051,7 +12471,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -14092,7 +12512,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -14133,7 +12553,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -14174,7 +12594,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -14215,7 +12635,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -14256,7 +12676,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -14297,7 +12717,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -14338,7 +12758,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -14379,7 +12799,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -14420,7 +12840,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -14461,7 +12881,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -14502,7 +12922,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -14543,7 +12963,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -14584,7 +13004,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -14625,7 +13045,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -14666,7 +13086,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -14707,7 +13127,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -14748,7 +13168,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -14789,7 +13209,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -14830,7 +13250,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -14871,7 +13291,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -14912,7 +13332,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -14953,7 +13373,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -14994,7 +13414,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -15035,7 +13455,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -15076,7 +13496,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -15117,7 +13537,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -15158,7 +13578,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -15199,7 +13619,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -15240,7 +13660,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -15281,7 +13701,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -15322,7 +13742,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -15363,7 +13783,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -15404,7 +13824,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -15445,7 +13865,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -15486,7 +13906,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -15527,7 +13947,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -15568,7 +13988,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -15609,7 +14029,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -15650,7 +14070,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -15691,7 +14111,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -15732,7 +14152,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -15766,16 +14186,14 @@
         <v>17.90666666666666</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -15816,7 +14234,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -15857,7 +14275,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -15898,7 +14316,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -15939,7 +14357,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -15980,7 +14398,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -16021,7 +14439,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -16062,7 +14480,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -16103,7 +14521,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -16144,7 +14562,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -16185,7 +14603,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -16226,7 +14644,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -16267,7 +14685,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -16308,7 +14726,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -16349,7 +14767,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -16390,7 +14808,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -16431,7 +14849,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -16472,7 +14890,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -16513,7 +14931,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -16554,7 +14972,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -16595,7 +15013,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -16636,7 +15054,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -16677,7 +15095,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -16718,7 +15136,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -16759,7 +15177,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -16800,7 +15218,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -16841,7 +15259,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -16882,7 +15300,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -16923,7 +15341,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -16964,7 +15382,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -17005,7 +15423,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -17046,7 +15464,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -17087,7 +15505,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -17128,7 +15546,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -17169,7 +15587,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -17210,7 +15628,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -17251,7 +15669,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -17292,7 +15710,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -17333,7 +15751,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -17374,7 +15792,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -17415,7 +15833,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -17456,7 +15874,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -17497,7 +15915,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -17538,7 +15956,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -17579,7 +15997,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -17620,7 +16038,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -17661,7 +16079,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -17702,7 +16120,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -17743,7 +16161,7 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -17784,7 +16202,7 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -17825,7 +16243,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -17866,7 +16284,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -17907,7 +16325,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -17948,7 +16366,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -17989,7 +16407,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -18030,7 +16448,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -18071,7 +16489,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -18112,7 +16530,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -18153,7 +16571,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -18194,7 +16612,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -18235,7 +16653,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -18276,7 +16694,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -18317,7 +16735,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -18358,7 +16776,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -18399,7 +16817,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -18440,7 +16858,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -18481,7 +16899,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -18522,7 +16940,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -18563,7 +16981,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -18604,7 +17022,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -18645,7 +17063,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -18686,7 +17104,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -18727,7 +17145,7 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -18768,7 +17186,7 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -18809,7 +17227,7 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -18850,7 +17268,7 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -18891,7 +17309,7 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -18932,7 +17350,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -18973,7 +17391,7 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -19014,7 +17432,7 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -19055,7 +17473,7 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -19096,7 +17514,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -19137,7 +17555,7 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -19178,7 +17596,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -19219,7 +17637,7 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -19260,7 +17678,7 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -19301,7 +17719,7 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -19342,7 +17760,7 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -19383,7 +17801,7 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -19424,7 +17842,7 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -19465,7 +17883,7 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -19506,7 +17924,7 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -19547,7 +17965,7 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -19588,7 +18006,7 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -19629,7 +18047,7 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -19670,7 +18088,7 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -19711,7 +18129,7 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -19752,7 +18170,7 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -19793,7 +18211,7 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -19834,7 +18252,7 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -19875,7 +18293,7 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -19916,7 +18334,7 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -19957,7 +18375,7 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -19998,7 +18416,7 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -20039,7 +18457,7 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -20080,7 +18498,7 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -20121,7 +18539,7 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -20162,7 +18580,7 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -20203,7 +18621,7 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -20244,7 +18662,7 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -20285,7 +18703,7 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -20326,7 +18744,7 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -20367,7 +18785,7 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -20408,7 +18826,7 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -20442,16 +18860,14 @@
         <v>17.86000000000002</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -20485,16 +18901,14 @@
         <v>17.85666666666668</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -20528,16 +18942,14 @@
         <v>17.85333333333335</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -20571,16 +18983,14 @@
         <v>17.85000000000002</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -20621,7 +19031,7 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -20662,7 +19072,7 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -20703,7 +19113,7 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -20744,7 +19154,7 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -20785,7 +19195,7 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -20826,7 +19236,7 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -20867,7 +19277,7 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -20908,7 +19318,7 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -20949,7 +19359,7 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -20990,7 +19400,7 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -21031,7 +19441,7 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -21072,7 +19482,7 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -21113,7 +19523,7 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -21154,7 +19564,7 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -21195,7 +19605,7 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -21236,7 +19646,7 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -21277,7 +19687,7 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -21311,16 +19721,14 @@
         <v>17.81333333333334</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -21354,16 +19762,14 @@
         <v>17.81166666666667</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -21404,7 +19810,7 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -21445,7 +19851,7 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -21486,7 +19892,7 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -21527,7 +19933,7 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -21568,7 +19974,7 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -21609,7 +20015,7 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -21650,7 +20056,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -21691,7 +20097,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -21732,7 +20138,7 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -21773,7 +20179,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -21814,7 +20220,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -21855,7 +20261,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -21896,7 +20302,7 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -21937,7 +20343,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -21978,7 +20384,7 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -22019,7 +20425,7 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -22060,7 +20466,7 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -22101,7 +20507,7 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -22142,7 +20548,7 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -22183,7 +20589,7 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -22224,7 +20630,7 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
@@ -22265,7 +20671,7 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L533" t="inlineStr">
         <is>
@@ -22306,7 +20712,7 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L534" t="inlineStr">
         <is>
@@ -22347,7 +20753,7 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L535" t="inlineStr">
         <is>
@@ -22388,7 +20794,7 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L536" t="inlineStr">
         <is>
@@ -22429,7 +20835,7 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L537" t="inlineStr">
         <is>
@@ -22470,7 +20876,7 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -22511,7 +20917,7 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -22552,7 +20958,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -22593,7 +20999,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>
@@ -22634,7 +21040,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L542" t="inlineStr">
         <is>
@@ -22675,7 +21081,7 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L543" t="inlineStr">
         <is>
@@ -22716,7 +21122,7 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L544" t="inlineStr">
         <is>
@@ -22757,7 +21163,7 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L545" t="inlineStr">
         <is>
@@ -22798,7 +21204,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L546" t="inlineStr">
         <is>
@@ -22839,7 +21245,7 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L547" t="inlineStr">
         <is>
@@ -22880,7 +21286,7 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L548" t="inlineStr">
         <is>
@@ -22921,7 +21327,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L549" t="inlineStr">
         <is>
@@ -22962,7 +21368,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L550" t="inlineStr">
         <is>
@@ -23003,7 +21409,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L551" t="inlineStr">
         <is>
@@ -23044,7 +21450,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L552" t="inlineStr">
         <is>
@@ -23085,7 +21491,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L553" t="inlineStr">
         <is>
@@ -23126,7 +21532,7 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L554" t="inlineStr">
         <is>
@@ -23167,7 +21573,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L555" t="inlineStr">
         <is>
@@ -23208,7 +21614,7 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L556" t="inlineStr">
         <is>
@@ -23249,7 +21655,7 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L557" t="inlineStr">
         <is>
@@ -23290,7 +21696,7 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L558" t="inlineStr">
         <is>
@@ -23331,7 +21737,7 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L559" t="inlineStr">
         <is>
@@ -23372,7 +21778,7 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L560" t="inlineStr">
         <is>
@@ -23413,7 +21819,7 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L561" t="inlineStr">
         <is>
@@ -23454,7 +21860,7 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L562" t="inlineStr">
         <is>
@@ -23495,7 +21901,7 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L563" t="inlineStr">
         <is>
@@ -23536,7 +21942,7 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L564" t="inlineStr">
         <is>
@@ -23577,7 +21983,7 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L565" t="inlineStr">
         <is>
@@ -23618,7 +22024,7 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L566" t="inlineStr">
         <is>
@@ -23659,7 +22065,7 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L567" t="inlineStr">
         <is>
@@ -23700,7 +22106,7 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L568" t="inlineStr">
         <is>
@@ -23741,7 +22147,7 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L569" t="inlineStr">
         <is>
@@ -23782,7 +22188,7 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L570" t="inlineStr">
         <is>
@@ -23819,19 +22225,19 @@
         <v>0</v>
       </c>
       <c r="I571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>1.040197740112994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -23860,11 +22266,17 @@
         <v>0</v>
       </c>
       <c r="I572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -23898,8 +22310,14 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -23930,13 +22348,19 @@
         <v>0</v>
       </c>
       <c r="I574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M574" t="n">
-        <v>1</v>
+        <v>1.039943820224719</v>
       </c>
     </row>
     <row r="575">

--- a/BackTest/2019-11-01 BackTest FNB.xlsx
+++ b/BackTest/2019-11-01 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-440968.9406510851</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-440968.9406510851</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>17.3</v>
@@ -521,7 +521,7 @@
         <v>-399424.429251085</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>17.3</v>
@@ -562,7 +562,7 @@
         <v>-612106.3313510851</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>17.4</v>
@@ -603,7 +603,7 @@
         <v>-612106.3313510851</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>17.3</v>
@@ -640,7 +640,7 @@
         <v>-612106.3313510851</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>17.3</v>
@@ -681,7 +681,7 @@
         <v>-612106.3313510851</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>17.3</v>
@@ -722,7 +722,7 @@
         <v>-304676.6106510851</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>17.3</v>
@@ -759,7 +759,7 @@
         <v>48028.18453005783</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>17.4</v>
@@ -800,7 +800,7 @@
         <v>48028.18453005783</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>17.5</v>
@@ -841,7 +841,7 @@
         <v>48028.18453005783</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>17.5</v>
@@ -878,7 +878,7 @@
         <v>402157.4706300579</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>17.5</v>
@@ -919,7 +919,7 @@
         <v>402157.4706300579</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>17.6</v>
@@ -960,7 +960,7 @@
         <v>402157.4706300579</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>17.6</v>
@@ -1001,11 +1001,9 @@
         <v>815931.5383300579</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>17.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>17.5</v>
       </c>
@@ -1042,11 +1040,9 @@
         <v>815931.5383300579</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>17.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>17.5</v>
       </c>
@@ -1083,11 +1079,9 @@
         <v>815962.0551300579</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>17.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>17.5</v>
       </c>
@@ -3464,7 +3458,7 @@
         <v>1283586.344699332</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
@@ -3472,11 +3466,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.023571428571429</v>
+        <v>1</v>
       </c>
       <c r="M79" t="inlineStr"/>
     </row>
@@ -3503,11 +3497,17 @@
         <v>912134.5361993317</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3539,8 +3539,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3569,11 +3575,17 @@
         <v>278495.6189993317</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3605,8 +3617,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3638,8 +3656,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3671,8 +3695,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3704,8 +3734,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3737,8 +3773,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3770,8 +3812,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3803,8 +3851,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3836,8 +3890,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3869,8 +3929,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3902,8 +3968,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3935,8 +4007,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3968,8 +4046,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3998,11 +4082,17 @@
         <v>555797.3619993317</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4031,11 +4121,17 @@
         <v>555797.3619993317</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4067,8 +4163,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4100,8 +4202,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4133,8 +4241,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4166,8 +4280,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4199,8 +4319,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4232,8 +4358,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4265,8 +4397,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4298,8 +4436,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4331,8 +4475,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4364,8 +4514,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4394,11 +4550,17 @@
         <v>360597.7199548874</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4427,11 +4589,17 @@
         <v>213154.1861548874</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4460,11 +4628,17 @@
         <v>213154.1861548874</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4493,11 +4667,17 @@
         <v>213154.1861548874</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4529,8 +4709,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4562,8 +4748,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4595,8 +4787,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4628,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4661,8 +4865,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4694,8 +4904,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +4943,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4760,8 +4982,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4793,8 +5021,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4826,8 +5060,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4859,8 +5099,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4892,8 +5138,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4922,11 +5174,17 @@
         <v>491269.5893548874</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4958,8 +5216,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4991,8 +5255,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5024,8 +5294,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5057,8 +5333,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5090,8 +5372,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5123,8 +5411,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5156,8 +5450,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5189,8 +5489,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5222,8 +5528,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5255,8 +5567,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5288,8 +5606,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5321,8 +5645,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5354,8 +5684,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5387,8 +5723,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5420,8 +5762,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5453,8 +5801,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5486,8 +5840,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5519,8 +5879,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5552,8 +5918,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5585,8 +5957,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5618,8 +5996,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5651,8 +6035,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5684,8 +6074,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5717,8 +6113,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5747,11 +6149,17 @@
         <v>1839506.086454887</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5783,8 +6191,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5816,8 +6230,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5849,8 +6269,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5882,8 +6308,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +6344,17 @@
         <v>3912780.401354887</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5945,11 +6383,17 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5978,15 +6422,23 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>1.057857142857143</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.011560693641618</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6011,7 +6463,7 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6044,7 +6496,7 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6077,7 +6529,7 @@
         <v>4174248.663454887</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6110,7 +6562,7 @@
         <v>4086058.941054887</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6176,7 +6628,7 @@
         <v>4661178.626854886</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6209,7 +6661,7 @@
         <v>4661178.626854886</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6242,7 +6694,7 @@
         <v>4385083.909854886</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6275,7 +6727,7 @@
         <v>4385083.909854886</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6308,7 +6760,7 @@
         <v>4385083.909854886</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6341,7 +6793,7 @@
         <v>4081366.139454886</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6374,7 +6826,7 @@
         <v>3743624.313354886</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6407,7 +6859,7 @@
         <v>3743624.313354886</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6440,7 +6892,7 @@
         <v>3743624.313354886</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6473,7 +6925,7 @@
         <v>3743624.313354886</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6506,7 +6958,7 @@
         <v>3937724.104954886</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6539,7 +6991,7 @@
         <v>3937724.104954886</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6572,7 +7024,7 @@
         <v>4035449.871254886</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6605,7 +7057,7 @@
         <v>4010060.871254886</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6638,7 +7090,7 @@
         <v>4010060.871254886</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6671,7 +7123,7 @@
         <v>4010060.871254886</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6704,7 +7156,7 @@
         <v>4149809.150754886</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6737,7 +7189,7 @@
         <v>4149798.150754886</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6770,7 +7222,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6803,7 +7255,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6836,7 +7288,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7232,7 +7684,7 @@
         <v>-132226.4893451134</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7265,7 +7717,7 @@
         <v>-672517.9961451134</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7331,7 +7783,7 @@
         <v>-657964.8244451134</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7364,7 +7816,7 @@
         <v>-694724.2463451134</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7397,7 +7849,7 @@
         <v>-694724.2463451134</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7430,7 +7882,7 @@
         <v>-694724.2463451134</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7463,7 +7915,7 @@
         <v>-687871.8735451134</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7496,7 +7948,7 @@
         <v>-687871.8735451134</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7529,7 +7981,7 @@
         <v>-626234.1729978606</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7562,7 +8014,7 @@
         <v>-626234.1729978606</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7595,7 +8047,7 @@
         <v>-788811.9644978605</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7628,7 +8080,7 @@
         <v>-788811.9644978605</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7661,7 +8113,7 @@
         <v>-788811.9644978605</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7694,7 +8146,7 @@
         <v>-771785.0963978606</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7760,7 +8212,7 @@
         <v>-771785.0963978606</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7793,7 +8245,7 @@
         <v>-771785.0963978606</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7826,7 +8278,7 @@
         <v>-771785.0963978606</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7859,7 +8311,7 @@
         <v>-779765.0963978606</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7892,7 +8344,7 @@
         <v>-779765.0963978606</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7925,7 +8377,7 @@
         <v>-779765.0963978606</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7958,7 +8410,7 @@
         <v>-736330.9609978605</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7991,7 +8443,7 @@
         <v>-736417.9609978605</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -9641,7 +10093,7 @@
         <v>-626555.205481377</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10334,7 +10786,7 @@
         <v>-85116.56619126699</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10367,7 +10819,7 @@
         <v>-92553.47639126699</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10400,7 +10852,7 @@
         <v>-92542.47639126699</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10433,7 +10885,7 @@
         <v>-125875.476391267</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10466,7 +10918,7 @@
         <v>-125875.476391267</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10499,7 +10951,7 @@
         <v>-82334.65309126698</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10532,7 +10984,7 @@
         <v>-84327.15309126698</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10598,7 +11050,7 @@
         <v>-84327.15309126698</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11192,7 +11644,7 @@
         <v>-1360972.883891267</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -16043,10 +16495,14 @@
         <v>-5395577.936046026</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J460" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
@@ -16079,8 +16535,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16112,8 +16574,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16307,10 +16775,14 @@
         <v>-5420488.217146026</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J468" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
@@ -16340,11 +16812,19 @@
         <v>-5363622.295358316</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J469" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16373,11 +16853,19 @@
         <v>-5375322.518758316</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J470" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16406,11 +16894,19 @@
         <v>-5199904.138958315</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J471" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16442,8 +16938,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16475,8 +16977,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16508,8 +17016,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16541,8 +17055,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16571,11 +17091,19 @@
         <v>-5564464.209722003</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J476" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16607,8 +17135,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16637,11 +17171,19 @@
         <v>-5301030.103546025</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J478" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16670,11 +17212,19 @@
         <v>-5300830.103546025</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J479" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16706,8 +17256,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16739,8 +17295,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16772,8 +17334,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16805,8 +17373,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16838,8 +17412,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16871,8 +17451,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16904,8 +17490,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16937,8 +17529,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16970,8 +17568,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17003,8 +17607,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17036,8 +17646,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17069,8 +17685,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17102,8 +17724,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17135,8 +17763,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17168,8 +17802,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17201,8 +17841,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17234,8 +17880,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17267,8 +17919,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17300,8 +17958,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17333,8 +17997,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17363,11 +18033,19 @@
         <v>-5759243.687646025</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J500" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17396,11 +18074,19 @@
         <v>-5759199.579146025</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J501" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17429,11 +18115,19 @@
         <v>-5759199.579146025</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J502" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17465,8 +18159,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17498,8 +18198,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17531,8 +18237,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17561,11 +18273,19 @@
         <v>-5822954.041746025</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J506" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17597,8 +18317,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17627,11 +18353,19 @@
         <v>-5903792.935946025</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J508" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17663,8 +18397,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17696,8 +18436,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17726,11 +18472,19 @@
         <v>-5903792.935946025</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>18</v>
+      </c>
+      <c r="J511" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17759,11 +18513,19 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>18</v>
+      </c>
+      <c r="J512" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17792,11 +18554,19 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J513" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17825,11 +18595,19 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J514" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17858,11 +18636,19 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J515" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17891,11 +18677,19 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J516" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17924,11 +18718,19 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J517" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17957,11 +18759,19 @@
         <v>-5939513.792046025</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J518" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17990,11 +18800,19 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>18</v>
+      </c>
+      <c r="J519" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18023,11 +18841,19 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J520" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18056,11 +18882,19 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J521" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18089,11 +18923,19 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J522" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18122,11 +18964,19 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J523" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18155,11 +19005,19 @@
         <v>-6005532.990746026</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J524" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18188,11 +19046,19 @@
         <v>-6005532.990746026</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J525" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18221,11 +19087,19 @@
         <v>-5931810.113746026</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J526" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18254,11 +19128,19 @@
         <v>-5957769.656046025</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J527" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18287,11 +19169,19 @@
         <v>-5957769.656046025</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J528" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18320,11 +19210,19 @@
         <v>-5957769.656046025</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J529" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18353,11 +19251,19 @@
         <v>-5957759.656046025</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J530" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18386,11 +19292,19 @@
         <v>-6504429.989346026</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J531" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18419,11 +19333,19 @@
         <v>-6504429.989346026</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J532" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18452,11 +19374,19 @@
         <v>-6504451.961846026</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J533" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18485,11 +19415,19 @@
         <v>-6004451.961846026</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J534" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18518,11 +19456,19 @@
         <v>-6004462.883546025</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J535" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18551,11 +19497,19 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J536" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18584,11 +19538,19 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J537" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18617,11 +19579,19 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J538" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18650,11 +19620,19 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J539" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18683,11 +19661,19 @@
         <v>-5690447.120546025</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J540" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18716,11 +19702,19 @@
         <v>-5690447.120546025</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J541" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18749,11 +19743,19 @@
         <v>-5690447.120546025</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J542" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18782,11 +19784,19 @@
         <v>-5690436.120546025</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J543" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18815,11 +19825,19 @@
         <v>-5690436.120546025</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J544" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18848,11 +19866,19 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J545" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18881,11 +19907,19 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J546" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18914,11 +19948,19 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J547" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18947,11 +19989,19 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J548" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18980,11 +20030,19 @@
         <v>-5700312.261047149</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J549" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19013,11 +20071,19 @@
         <v>-5700312.261047149</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J550" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19046,11 +20112,19 @@
         <v>-5700312.261047149</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J551" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19079,11 +20153,19 @@
         <v>-5700344.273047149</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J552" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19112,11 +20194,19 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J553" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19145,11 +20235,19 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J554" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19178,11 +20276,19 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J555" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19211,11 +20317,19 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J556" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19244,11 +20358,19 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J557" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19277,11 +20399,19 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J558" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19310,11 +20440,19 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J559" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19343,11 +20481,19 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J560" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19376,11 +20522,19 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J561" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19409,11 +20563,19 @@
         <v>-5649480.49924715</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J562" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19442,11 +20604,19 @@
         <v>-5649492.487247149</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J563" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19475,11 +20645,19 @@
         <v>-5649492.487247149</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J564" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19508,11 +20686,19 @@
         <v>-5649492.487247149</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J565" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19541,11 +20727,19 @@
         <v>-5649946.43824715</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J566" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19574,11 +20768,19 @@
         <v>-5649946.43824715</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J567" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19607,11 +20809,19 @@
         <v>-5649946.43824715</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J568" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19640,11 +20850,19 @@
         <v>-5523198.28184715</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J569" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19673,11 +20891,19 @@
         <v>-5523198.28184715</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J570" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19709,8 +20935,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19742,8 +20974,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19772,11 +21010,19 @@
         <v>-5392836.11524715</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J573" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19805,11 +21051,19 @@
         <v>-5392836.11524715</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>18</v>
+      </c>
+      <c r="J574" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19838,11 +21092,19 @@
         <v>-5482284.67064715</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>18</v>
+      </c>
+      <c r="J575" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19874,8 +21136,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19907,8 +21175,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19937,11 +21211,19 @@
         <v>-5414127.78184715</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>18</v>
+      </c>
+      <c r="J578" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19970,11 +21252,19 @@
         <v>-5412114.43144715</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J579" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20003,11 +21293,19 @@
         <v>-5412114.43144715</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>18</v>
+      </c>
+      <c r="J580" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20039,8 +21337,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20072,8 +21376,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20105,8 +21415,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20135,11 +21451,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>18</v>
+      </c>
+      <c r="J584" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20168,11 +21492,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>18</v>
+      </c>
+      <c r="J585" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20201,11 +21533,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>18</v>
+      </c>
+      <c r="J586" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20234,11 +21574,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>18</v>
+      </c>
+      <c r="J587" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20267,11 +21615,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>18</v>
+      </c>
+      <c r="J588" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20300,11 +21656,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>18</v>
+      </c>
+      <c r="J589" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20333,11 +21697,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>18</v>
+      </c>
+      <c r="J590" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20366,11 +21738,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>18</v>
+      </c>
+      <c r="J591" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20399,11 +21779,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>18</v>
+      </c>
+      <c r="J592" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20432,11 +21820,19 @@
         <v>-4830478.357129103</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>18</v>
+      </c>
+      <c r="J593" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20465,11 +21861,19 @@
         <v>-4830478.357129103</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J594" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20498,11 +21902,19 @@
         <v>-4830478.357129103</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J595" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20531,11 +21943,19 @@
         <v>-4830478.357129103</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J596" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20564,11 +21984,19 @@
         <v>-4829992.711029103</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J597" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20597,11 +22025,19 @@
         <v>-4879992.711029103</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J598" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20630,11 +22066,19 @@
         <v>-4879992.711029103</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J599" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20663,11 +22107,19 @@
         <v>-4884907.597029103</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J600" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20696,11 +22148,19 @@
         <v>-4883449.031329103</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>18</v>
+      </c>
+      <c r="J601" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20729,11 +22189,19 @@
         <v>-4883449.031329103</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J602" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20762,11 +22230,19 @@
         <v>-4883449.031329103</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J603" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20795,11 +22271,19 @@
         <v>-5006849.423729103</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J604" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20828,11 +22312,19 @@
         <v>-4973607.474829103</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>18</v>
+      </c>
+      <c r="J605" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20861,11 +22353,19 @@
         <v>-5064198.271429103</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J606" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20894,11 +22394,19 @@
         <v>-5064198.271429103</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>18</v>
+      </c>
+      <c r="J607" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20927,11 +22435,19 @@
         <v>-5064188.271429103</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>18</v>
+      </c>
+      <c r="J608" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20960,11 +22476,19 @@
         <v>-5253645.375229103</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J609" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20993,11 +22517,19 @@
         <v>-5253645.375229103</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>18</v>
+      </c>
+      <c r="J610" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21026,11 +22558,19 @@
         <v>-5093263.275829103</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>18</v>
+      </c>
+      <c r="J611" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21059,11 +22599,19 @@
         <v>-5093263.275829103</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J612" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21092,11 +22640,19 @@
         <v>-5093263.275829103</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J613" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21125,11 +22681,19 @@
         <v>-4666798.744477722</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J614" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21158,11 +22722,19 @@
         <v>-4666798.744477722</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J615" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21191,11 +22763,19 @@
         <v>-4666798.744477722</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J616" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21224,11 +22804,19 @@
         <v>-4697448.000577722</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J617" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21257,11 +22845,19 @@
         <v>-4690329.539077722</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J618" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21290,11 +22886,19 @@
         <v>-4787415.020277722</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J619" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21323,11 +22927,19 @@
         <v>-4787415.020277722</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J620" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21356,11 +22968,19 @@
         <v>-4787415.020277722</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J621" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21389,11 +23009,19 @@
         <v>-4787405.020277722</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J622" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21422,11 +23050,19 @@
         <v>-4787405.020277722</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J623" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21455,11 +23091,19 @@
         <v>-4787405.020277722</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J624" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21488,11 +23132,19 @@
         <v>-4787405.020277722</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J625" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21521,11 +23173,19 @@
         <v>-4787405.020277722</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J626" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21557,8 +23217,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21590,8 +23256,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21623,8 +23295,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21656,8 +23334,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21689,8 +23373,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21722,8 +23412,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21752,11 +23448,17 @@
         <v>-2007619.150121596</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21785,11 +23487,17 @@
         <v>-2138948.484521596</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21818,11 +23526,17 @@
         <v>-2127672.439921596</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21854,8 +23568,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21884,11 +23604,17 @@
         <v>-2127672.439921596</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21920,8 +23646,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21953,8 +23685,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21986,8 +23724,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22019,8 +23763,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22052,8 +23802,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22085,8 +23841,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22118,8 +23880,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22151,8 +23919,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22184,8 +23958,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22217,8 +23997,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22250,8 +24036,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22283,8 +24075,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22316,8 +24114,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22349,8 +24153,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22382,8 +24192,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22415,8 +24231,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22448,8 +24270,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22481,8 +24309,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22514,8 +24348,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22547,8 +24387,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22580,8 +24426,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22613,8 +24465,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22646,8 +24504,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22679,8 +24543,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22712,8 +24582,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22745,8 +24621,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22778,8 +24660,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22811,8 +24699,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22844,8 +24738,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22877,8 +24777,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22910,8 +24816,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22943,8 +24855,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22976,8 +24894,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23009,8 +24933,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23042,8 +24972,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23075,8 +25011,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23108,8 +25050,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23141,8 +25089,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23174,8 +25128,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23207,8 +25167,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23240,8 +25206,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23273,8 +25245,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23306,8 +25284,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23339,8 +25323,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23372,8 +25362,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23405,8 +25401,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23438,8 +25440,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23471,8 +25479,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23504,8 +25518,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23537,8 +25557,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23570,8 +25596,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23603,8 +25635,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23636,8 +25674,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23669,8 +25713,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23702,8 +25752,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23735,8 +25791,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23768,8 +25830,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23801,8 +25869,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23834,8 +25908,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23867,8 +25947,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23900,8 +25986,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23933,8 +26025,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23966,8 +26064,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23999,8 +26103,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24032,8 +26142,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24065,8 +26181,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24098,8 +26220,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24131,8 +26259,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24164,8 +26298,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24197,8 +26337,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24230,14 +26376,20 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
       <c r="M708" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest FNB.xlsx
+++ b/BackTest/2019-11-01 BackTest FNB.xlsx
@@ -1078,7 +1078,7 @@
         <v>2253939.223930058</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2250510.223930058</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2250538.557230058</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2250538.557230058</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2250538.557230058</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2250538.244430058</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2221971.550130058</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2221981.550130058</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2221963.550130058</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2226963.550130058</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2226963.550130058</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2185349.197299332</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2086391.770499332</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2101518.259899332</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1813077.914699332</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1725765.446199332</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1874902.917099332</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1874902.917099332</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1670081.102799332</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>489258.3806548874</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>489258.3806548874</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>491269.5893548874</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>491269.5893548874</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>3912780.401354887</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>4105651.979054886</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>4174248.663454887</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>4086058.941054887</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>4086058.941054887</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>4661178.626854886</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>4661178.626854886</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>4385083.909854886</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>4385083.909854886</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>4385083.909854886</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>4081366.139454886</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>3743624.313354886</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>3937724.104954886</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>4035449.871254886</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>4010060.871254886</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>4010060.871254886</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>4010060.871254886</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>4149809.150754886</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>4149798.150754886</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>4224149.816154886</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>4216321.046354886</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>4369403.438754886</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>4040223.097954886</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>4040223.097954886</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -17281,10 +17281,14 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>18</v>
+      </c>
+      <c r="J512" t="n">
+        <v>18</v>
+      </c>
       <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
@@ -17314,11 +17318,19 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J513" t="n">
+        <v>18</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +17359,19 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J514" t="n">
+        <v>18</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,10 +17400,14 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J515" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
@@ -17413,11 +17437,19 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J516" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17478,19 @@
         <v>-5939523.792046025</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J517" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17479,10 +17519,14 @@
         <v>-5939513.792046025</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J518" t="n">
+        <v>17.9</v>
+      </c>
       <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
@@ -17512,11 +17556,19 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>18</v>
+      </c>
+      <c r="J519" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +17597,19 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J520" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +17638,19 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J521" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +17679,19 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J522" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +17720,19 @@
         <v>-6005499.045746026</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J523" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +17761,19 @@
         <v>-6005532.990746026</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J524" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +17802,19 @@
         <v>-6005532.990746026</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J525" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17743,11 +17843,19 @@
         <v>-5931810.113746026</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J526" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +17884,19 @@
         <v>-5957769.656046025</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J527" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +17925,19 @@
         <v>-5957769.656046025</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J528" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +17966,19 @@
         <v>-5957769.656046025</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J529" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +18007,19 @@
         <v>-5957759.656046025</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J530" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +18048,19 @@
         <v>-6504429.989346026</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J531" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18089,19 @@
         <v>-6504429.989346026</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J532" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +18130,19 @@
         <v>-6504451.961846026</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J533" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +18171,19 @@
         <v>-6004451.961846026</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J534" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +18212,19 @@
         <v>-6004462.883546025</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J535" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +18253,19 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J536" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18106,11 +18294,19 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J537" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +18335,19 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J538" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +18376,19 @@
         <v>-5675521.181346025</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J539" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +18417,19 @@
         <v>-5690447.120546025</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J540" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +18458,19 @@
         <v>-5690447.120546025</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J541" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +18499,19 @@
         <v>-5690447.120546025</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J542" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +18540,19 @@
         <v>-5690436.120546025</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J543" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18337,11 +18581,19 @@
         <v>-5690436.120546025</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J544" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18370,11 +18622,19 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J545" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +18663,19 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J546" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,11 +18704,19 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J547" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +18745,19 @@
         <v>-5710386.120546025</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J548" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +18786,19 @@
         <v>-5700312.261047149</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J549" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +18827,19 @@
         <v>-5700312.261047149</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J550" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +18868,19 @@
         <v>-5700312.261047149</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J551" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18601,11 +18909,19 @@
         <v>-5700344.273047149</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J552" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18640,9 +18956,13 @@
         <v>17.7</v>
       </c>
       <c r="J553" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="K553" t="inlineStr"/>
+        <v>17.9</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18671,15 +18991,17 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J554" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L554" t="n">
@@ -18710,15 +19032,17 @@
         <v>-5689733.739447149</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J555" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L555" t="n">
@@ -18755,9 +19079,13 @@
         <v>17.8</v>
       </c>
       <c r="J556" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="K556" t="inlineStr"/>
+        <v>17.9</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18792,11 +19120,11 @@
         <v>17.8</v>
       </c>
       <c r="J557" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L557" t="n">
@@ -18833,11 +19161,11 @@
         <v>17.8</v>
       </c>
       <c r="J558" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L558" t="n">
@@ -18874,9 +19202,13 @@
         <v>17.8</v>
       </c>
       <c r="J559" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="K559" t="inlineStr"/>
+        <v>17.9</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18911,11 +19243,11 @@
         <v>17.8</v>
       </c>
       <c r="J560" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L560" t="n">
@@ -18952,11 +19284,11 @@
         <v>17.8</v>
       </c>
       <c r="J561" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L561" t="n">
@@ -18993,9 +19325,13 @@
         <v>17.8</v>
       </c>
       <c r="J562" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="K562" t="inlineStr"/>
+        <v>17.9</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19024,15 +19360,17 @@
         <v>-5649492.487247149</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J563" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L563" t="n">
@@ -19063,15 +19401,17 @@
         <v>-5649492.487247149</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J564" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L564" t="n">
@@ -19102,11 +19442,19 @@
         <v>-5649492.487247149</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J565" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19135,11 +19483,19 @@
         <v>-5649946.43824715</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J566" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19168,11 +19524,19 @@
         <v>-5649946.43824715</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J567" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19207,9 +19571,13 @@
         <v>17.7</v>
       </c>
       <c r="J568" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="K568" t="inlineStr"/>
+        <v>17.9</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19244,11 +19612,11 @@
         <v>17.7</v>
       </c>
       <c r="J569" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L569" t="n">
@@ -19285,11 +19653,11 @@
         <v>17.9</v>
       </c>
       <c r="J570" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L570" t="n">
@@ -19320,11 +19688,19 @@
         <v>-5523198.28184715</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J571" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19353,11 +19729,19 @@
         <v>-5523198.28184715</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J572" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19386,11 +19770,19 @@
         <v>-5392836.11524715</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J573" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19419,11 +19811,19 @@
         <v>-5392836.11524715</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>18</v>
+      </c>
+      <c r="J574" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19452,11 +19852,19 @@
         <v>-5482284.67064715</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>18</v>
+      </c>
+      <c r="J575" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19485,11 +19893,19 @@
         <v>-5391269.78184715</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J576" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19518,11 +19934,19 @@
         <v>-5391269.78184715</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>18</v>
+      </c>
+      <c r="J577" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19551,11 +19975,19 @@
         <v>-5414127.78184715</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>18</v>
+      </c>
+      <c r="J578" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19584,11 +20016,19 @@
         <v>-5412114.43144715</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J579" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19617,11 +20057,19 @@
         <v>-5412114.43144715</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>18</v>
+      </c>
+      <c r="J580" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19653,8 +20101,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19686,8 +20140,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19719,8 +20179,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19749,11 +20215,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>18</v>
+      </c>
+      <c r="J584" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19782,11 +20256,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>18</v>
+      </c>
+      <c r="J585" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19815,11 +20297,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>18</v>
+      </c>
+      <c r="J586" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19848,11 +20338,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>18</v>
+      </c>
+      <c r="J587" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19881,11 +20379,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>18</v>
+      </c>
+      <c r="J588" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19914,11 +20420,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>18</v>
+      </c>
+      <c r="J589" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19947,11 +20461,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>18</v>
+      </c>
+      <c r="J590" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19980,11 +20502,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>18</v>
+      </c>
+      <c r="J591" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20013,11 +20543,19 @@
         <v>-5240717.943580484</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>18</v>
+      </c>
+      <c r="J592" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20046,11 +20584,19 @@
         <v>-4830478.357129103</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>18</v>
+      </c>
+      <c r="J593" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20079,11 +20625,19 @@
         <v>-4830478.357129103</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J594" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20112,11 +20666,19 @@
         <v>-4830478.357129103</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J595" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20145,11 +20707,19 @@
         <v>-4830478.357129103</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J596" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20178,11 +20748,19 @@
         <v>-4829992.711029103</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J597" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20211,11 +20789,19 @@
         <v>-4879992.711029103</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J598" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20244,11 +20830,19 @@
         <v>-4879992.711029103</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J599" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20277,11 +20871,19 @@
         <v>-4884907.597029103</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J600" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20310,11 +20912,19 @@
         <v>-4883449.031329103</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>18</v>
+      </c>
+      <c r="J601" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20343,11 +20953,19 @@
         <v>-4883449.031329103</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J602" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20376,11 +20994,19 @@
         <v>-4883449.031329103</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J603" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20409,11 +21035,19 @@
         <v>-5006849.423729103</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J604" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20442,11 +21076,19 @@
         <v>-4973607.474829103</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>18</v>
+      </c>
+      <c r="J605" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20475,11 +21117,19 @@
         <v>-5064198.271429103</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J606" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20508,11 +21158,19 @@
         <v>-5064198.271429103</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>18</v>
+      </c>
+      <c r="J607" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20541,11 +21199,19 @@
         <v>-5064188.271429103</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>18</v>
+      </c>
+      <c r="J608" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20574,11 +21240,19 @@
         <v>-5253645.375229103</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J609" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20607,11 +21281,19 @@
         <v>-5253645.375229103</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>18</v>
+      </c>
+      <c r="J610" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20640,11 +21322,19 @@
         <v>-5093263.275829103</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>18</v>
+      </c>
+      <c r="J611" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20673,11 +21363,19 @@
         <v>-5093263.275829103</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J612" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20706,11 +21404,19 @@
         <v>-5093263.275829103</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J613" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20739,11 +21445,19 @@
         <v>-4666798.744477722</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J614" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20775,8 +21489,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20808,8 +21528,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20841,8 +21567,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20874,8 +21606,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20907,8 +21645,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20940,8 +21684,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20973,8 +21723,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21006,8 +21762,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21039,8 +21801,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21072,8 +21840,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21105,8 +21879,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21138,8 +21918,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21171,8 +21957,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21204,8 +21996,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21237,8 +22035,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21270,8 +22074,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21303,8 +22113,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21336,8 +22152,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21369,8 +22191,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21402,8 +22230,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21435,8 +22269,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21468,8 +22308,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21501,8 +22347,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21534,8 +22386,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21567,8 +22425,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21600,8 +22464,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21633,8 +22503,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21666,8 +22542,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21699,8 +22581,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21732,8 +22620,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21765,8 +22659,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21798,8 +22698,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21831,8 +22737,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21864,8 +22776,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21897,8 +22815,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21930,8 +22854,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21963,8 +22893,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21996,8 +22932,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22029,8 +22971,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22062,8 +23010,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22095,8 +23049,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22128,8 +23088,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22161,8 +23127,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22194,8 +23166,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22227,8 +23205,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22260,8 +23244,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22293,8 +23283,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22326,8 +23322,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22359,8 +23361,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22392,8 +23400,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22425,8 +23439,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22458,8 +23478,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22491,8 +23517,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22524,8 +23556,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22557,8 +23595,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22590,8 +23634,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22623,8 +23673,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22656,8 +23712,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22689,8 +23751,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22722,8 +23790,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22755,8 +23829,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22788,8 +23868,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22821,8 +23907,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22854,8 +23946,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22887,8 +23985,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22920,8 +24024,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22953,8 +24063,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22986,8 +24102,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23019,8 +24141,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23052,8 +24180,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23085,8 +24219,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23118,8 +24258,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23151,8 +24297,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23184,8 +24336,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23217,8 +24375,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23250,8 +24414,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23283,8 +24453,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23316,8 +24492,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23349,8 +24531,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23382,8 +24570,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23415,8 +24609,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23448,8 +24648,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23481,8 +24687,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23514,8 +24726,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23547,8 +24765,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23580,8 +24804,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23613,8 +24843,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23646,8 +24882,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23679,8 +24921,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23712,8 +24960,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23745,8 +24999,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23778,8 +25038,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23811,8 +25077,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23844,8 +25116,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
